--- a/AIS/spreadsheet/RN_PA2B2HSS1.xlsx
+++ b/AIS/spreadsheet/RN_PA2B2HSS1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t xml:space="preserve">EM Gain</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Error (ADU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
   </si>
 </sst>
 </file>
@@ -236,7 +230,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -379,7 +373,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.56</c:v>
+                  <c:v>3.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.66666666666667</c:v>
@@ -416,11 +410,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86036143"/>
-        <c:axId val="28692800"/>
+        <c:axId val="54049019"/>
+        <c:axId val="40591637"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86036143"/>
+        <c:axId val="54049019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,12 +470,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28692800"/>
+        <c:crossAx val="40591637"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28692800"/>
+        <c:axId val="40591637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.1"/>
@@ -547,7 +541,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86036143"/>
+        <c:crossAx val="54049019"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -585,9 +579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -595,8 +589,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6144120" y="315000"/>
-        <a:ext cx="5165280" cy="3237120"/>
+        <a:off x="6139080" y="315000"/>
+        <a:ext cx="5154840" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -617,10 +611,10 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.1"/>
@@ -648,10 +642,10 @@
         <v>14.55</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3.56</v>
+        <v>3.53333333333333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.005</v>
+        <v>0.0111111111111111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,11 +803,11 @@
       <c r="A18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
+      <c r="B18" s="1" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
